--- a/database/FuturesData.xlsx
+++ b/database/FuturesData.xlsx
@@ -419,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3247"/>
+  <dimension ref="A1:G3250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3246" sqref="M3246"/>
+      <selection pane="bottomRight" activeCell="J3249" sqref="J3249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -55458,6 +55458,75 @@
         <v>2462</v>
       </c>
     </row>
+    <row r="3248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3248" s="2">
+        <v>43613</v>
+      </c>
+      <c r="B3248">
+        <v>2058</v>
+      </c>
+      <c r="C3248">
+        <v>2112</v>
+      </c>
+      <c r="D3248">
+        <v>1994</v>
+      </c>
+      <c r="E3248">
+        <v>2480</v>
+      </c>
+      <c r="F3248">
+        <v>2521</v>
+      </c>
+      <c r="G3248">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3249" s="2">
+        <v>43614</v>
+      </c>
+      <c r="B3249">
+        <v>2069</v>
+      </c>
+      <c r="C3249">
+        <v>2128</v>
+      </c>
+      <c r="D3249">
+        <v>2004</v>
+      </c>
+      <c r="E3249">
+        <v>2488</v>
+      </c>
+      <c r="F3249">
+        <v>2539</v>
+      </c>
+      <c r="G3249">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3250" s="2">
+        <v>43615</v>
+      </c>
+      <c r="B3250">
+        <v>2044</v>
+      </c>
+      <c r="C3250">
+        <v>2111</v>
+      </c>
+      <c r="D3250">
+        <v>1986</v>
+      </c>
+      <c r="E3250">
+        <v>2469</v>
+      </c>
+      <c r="F3250">
+        <v>2514</v>
+      </c>
+      <c r="G3250">
+        <v>2430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/FuturesData.xlsx
+++ b/database/FuturesData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="futures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>玉米1月</t>
   </si>
@@ -38,10 +41,6 @@
   <si>
     <t>淀粉9月</t>
   </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -52,7 +51,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,13 +59,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -108,10 +106,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -175,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,41 +417,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3250"/>
+  <dimension ref="A1:G3253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3236" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3249" sqref="J3249"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3255" sqref="B3255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -53307,7 +53305,7 @@
       </c>
     </row>
     <row r="3153" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3153" s="2">
+      <c r="A3153" s="1">
         <v>43467</v>
       </c>
       <c r="B3153">
@@ -53330,7 +53328,7 @@
       </c>
     </row>
     <row r="3154" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3154" s="2">
+      <c r="A3154" s="1">
         <v>43468</v>
       </c>
       <c r="C3154">
@@ -53350,7 +53348,7 @@
       </c>
     </row>
     <row r="3155" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3155" s="2">
+      <c r="A3155" s="1">
         <v>43469</v>
       </c>
       <c r="B3155">
@@ -53373,7 +53371,7 @@
       </c>
     </row>
     <row r="3156" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3156" s="2">
+      <c r="A3156" s="1">
         <v>43472</v>
       </c>
       <c r="B3156">
@@ -53396,7 +53394,7 @@
       </c>
     </row>
     <row r="3157" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3157" s="2">
+      <c r="A3157" s="1">
         <v>43473</v>
       </c>
       <c r="B3157">
@@ -53419,7 +53417,7 @@
       </c>
     </row>
     <row r="3158" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3158" s="2">
+      <c r="A3158" s="1">
         <v>43474</v>
       </c>
       <c r="B3158">
@@ -53439,7 +53437,7 @@
       </c>
     </row>
     <row r="3159" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3159" s="2">
+      <c r="A3159" s="1">
         <v>43475</v>
       </c>
       <c r="C3159">
@@ -53459,7 +53457,7 @@
       </c>
     </row>
     <row r="3160" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3160" s="2">
+      <c r="A3160" s="1">
         <v>43476</v>
       </c>
       <c r="B3160">
@@ -53479,7 +53477,7 @@
       </c>
     </row>
     <row r="3161" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3161" s="2">
+      <c r="A3161" s="1">
         <v>43479</v>
       </c>
       <c r="C3161">
@@ -53496,7 +53494,7 @@
       </c>
     </row>
     <row r="3162" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3162" s="2">
+      <c r="A3162" s="1">
         <v>43480</v>
       </c>
       <c r="C3162">
@@ -53513,7 +53511,7 @@
       </c>
     </row>
     <row r="3163" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3163" s="2">
+      <c r="A3163" s="1">
         <v>43481</v>
       </c>
       <c r="B3163">
@@ -53536,7 +53534,7 @@
       </c>
     </row>
     <row r="3164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3164" s="2">
+      <c r="A3164" s="1">
         <v>43482</v>
       </c>
       <c r="B3164">
@@ -53559,7 +53557,7 @@
       </c>
     </row>
     <row r="3165" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3165" s="2">
+      <c r="A3165" s="1">
         <v>43483</v>
       </c>
       <c r="B3165">
@@ -53582,7 +53580,7 @@
       </c>
     </row>
     <row r="3166" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3166" s="2">
+      <c r="A3166" s="1">
         <v>43486</v>
       </c>
       <c r="B3166">
@@ -53605,7 +53603,7 @@
       </c>
     </row>
     <row r="3167" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3167" s="2">
+      <c r="A3167" s="1">
         <v>43487</v>
       </c>
       <c r="B3167">
@@ -53628,7 +53626,7 @@
       </c>
     </row>
     <row r="3168" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3168" s="2">
+      <c r="A3168" s="1">
         <v>43488</v>
       </c>
       <c r="B3168">
@@ -53648,7 +53646,7 @@
       </c>
     </row>
     <row r="3169" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3169" s="2">
+      <c r="A3169" s="1">
         <v>43489</v>
       </c>
       <c r="B3169">
@@ -53671,7 +53669,7 @@
       </c>
     </row>
     <row r="3170" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3170" s="2">
+      <c r="A3170" s="1">
         <v>43490</v>
       </c>
       <c r="B3170">
@@ -53694,7 +53692,7 @@
       </c>
     </row>
     <row r="3171" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3171" s="2">
+      <c r="A3171" s="1">
         <v>43493</v>
       </c>
       <c r="B3171">
@@ -53717,7 +53715,7 @@
       </c>
     </row>
     <row r="3172" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3172" s="2">
+      <c r="A3172" s="1">
         <v>43494</v>
       </c>
       <c r="B3172">
@@ -53740,7 +53738,7 @@
       </c>
     </row>
     <row r="3173" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3173" s="2">
+      <c r="A3173" s="1">
         <v>43495</v>
       </c>
       <c r="B3173">
@@ -53763,7 +53761,7 @@
       </c>
     </row>
     <row r="3174" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3174" s="2">
+      <c r="A3174" s="1">
         <v>43496</v>
       </c>
       <c r="B3174">
@@ -53783,7 +53781,7 @@
       </c>
     </row>
     <row r="3175" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3175" s="2">
+      <c r="A3175" s="1">
         <v>43497</v>
       </c>
       <c r="B3175">
@@ -53803,7 +53801,7 @@
       </c>
     </row>
     <row r="3176" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3176" s="2">
+      <c r="A3176" s="1">
         <v>43507</v>
       </c>
       <c r="B3176">
@@ -53826,7 +53824,7 @@
       </c>
     </row>
     <row r="3177" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3177" s="2">
+      <c r="A3177" s="1">
         <v>43508</v>
       </c>
       <c r="B3177">
@@ -53849,7 +53847,7 @@
       </c>
     </row>
     <row r="3178" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3178" s="2">
+      <c r="A3178" s="1">
         <v>43509</v>
       </c>
       <c r="B3178">
@@ -53872,7 +53870,7 @@
       </c>
     </row>
     <row r="3179" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3179" s="2">
+      <c r="A3179" s="1">
         <v>43510</v>
       </c>
       <c r="B3179">
@@ -53895,7 +53893,7 @@
       </c>
     </row>
     <row r="3180" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3180" s="2">
+      <c r="A3180" s="1">
         <v>43511</v>
       </c>
       <c r="B3180">
@@ -53918,7 +53916,7 @@
       </c>
     </row>
     <row r="3181" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3181" s="2">
+      <c r="A3181" s="1">
         <v>43514</v>
       </c>
       <c r="B3181">
@@ -53941,7 +53939,7 @@
       </c>
     </row>
     <row r="3182" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3182" s="2">
+      <c r="A3182" s="1">
         <v>43515</v>
       </c>
       <c r="B3182">
@@ -53964,7 +53962,7 @@
       </c>
     </row>
     <row r="3183" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3183" s="2">
+      <c r="A3183" s="1">
         <v>43516</v>
       </c>
       <c r="B3183">
@@ -53987,7 +53985,7 @@
       </c>
     </row>
     <row r="3184" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3184" s="2">
+      <c r="A3184" s="1">
         <v>43517</v>
       </c>
       <c r="B3184">
@@ -54010,7 +54008,7 @@
       </c>
     </row>
     <row r="3185" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3185" s="2">
+      <c r="A3185" s="1">
         <v>43518</v>
       </c>
       <c r="B3185">
@@ -54033,7 +54031,7 @@
       </c>
     </row>
     <row r="3186" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3186" s="2">
+      <c r="A3186" s="1">
         <v>43521</v>
       </c>
       <c r="B3186">
@@ -54056,7 +54054,7 @@
       </c>
     </row>
     <row r="3187" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3187" s="2">
+      <c r="A3187" s="1">
         <v>43522</v>
       </c>
       <c r="B3187">
@@ -54079,7 +54077,7 @@
       </c>
     </row>
     <row r="3188" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3188" s="2">
+      <c r="A3188" s="1">
         <v>43523</v>
       </c>
       <c r="B3188">
@@ -54102,7 +54100,7 @@
       </c>
     </row>
     <row r="3189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3189" s="2">
+      <c r="A3189" s="1">
         <v>43524</v>
       </c>
       <c r="B3189">
@@ -54125,7 +54123,7 @@
       </c>
     </row>
     <row r="3190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3190" s="2">
+      <c r="A3190" s="1">
         <v>43525</v>
       </c>
       <c r="B3190">
@@ -54148,7 +54146,7 @@
       </c>
     </row>
     <row r="3191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3191" s="2">
+      <c r="A3191" s="1">
         <v>43528</v>
       </c>
       <c r="B3191">
@@ -54171,7 +54169,7 @@
       </c>
     </row>
     <row r="3192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3192" s="2">
+      <c r="A3192" s="1">
         <v>43529</v>
       </c>
       <c r="B3192">
@@ -54194,7 +54192,7 @@
       </c>
     </row>
     <row r="3193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3193" s="2">
+      <c r="A3193" s="1">
         <v>43530</v>
       </c>
       <c r="B3193">
@@ -54217,7 +54215,7 @@
       </c>
     </row>
     <row r="3194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3194" s="2">
+      <c r="A3194" s="1">
         <v>43531</v>
       </c>
       <c r="B3194">
@@ -54240,7 +54238,7 @@
       </c>
     </row>
     <row r="3195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3195" s="2">
+      <c r="A3195" s="1">
         <v>43532</v>
       </c>
       <c r="B3195">
@@ -54263,7 +54261,7 @@
       </c>
     </row>
     <row r="3196" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3196" s="2">
+      <c r="A3196" s="1">
         <v>43535</v>
       </c>
       <c r="B3196">
@@ -54286,7 +54284,7 @@
       </c>
     </row>
     <row r="3197" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3197" s="2">
+      <c r="A3197" s="1">
         <v>43536</v>
       </c>
       <c r="B3197">
@@ -54309,7 +54307,7 @@
       </c>
     </row>
     <row r="3198" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3198" s="2">
+      <c r="A3198" s="1">
         <v>43537</v>
       </c>
       <c r="B3198">
@@ -54332,7 +54330,7 @@
       </c>
     </row>
     <row r="3199" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3199" s="2">
+      <c r="A3199" s="1">
         <v>43538</v>
       </c>
       <c r="B3199">
@@ -54355,7 +54353,7 @@
       </c>
     </row>
     <row r="3200" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3200" s="2">
+      <c r="A3200" s="1">
         <v>43539</v>
       </c>
       <c r="B3200">
@@ -54378,7 +54376,7 @@
       </c>
     </row>
     <row r="3201" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3201" s="2">
+      <c r="A3201" s="1">
         <v>43542</v>
       </c>
       <c r="B3201">
@@ -54401,7 +54399,7 @@
       </c>
     </row>
     <row r="3202" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3202" s="2">
+      <c r="A3202" s="1">
         <v>43543</v>
       </c>
       <c r="B3202">
@@ -54424,7 +54422,7 @@
       </c>
     </row>
     <row r="3203" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3203" s="2">
+      <c r="A3203" s="1">
         <v>43544</v>
       </c>
       <c r="B3203">
@@ -54447,7 +54445,7 @@
       </c>
     </row>
     <row r="3204" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3204" s="2">
+      <c r="A3204" s="1">
         <v>43545</v>
       </c>
       <c r="B3204">
@@ -54470,7 +54468,7 @@
       </c>
     </row>
     <row r="3205" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3205" s="2">
+      <c r="A3205" s="1">
         <v>43546</v>
       </c>
       <c r="B3205">
@@ -54493,7 +54491,7 @@
       </c>
     </row>
     <row r="3206" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3206" s="2">
+      <c r="A3206" s="1">
         <v>43549</v>
       </c>
       <c r="B3206">
@@ -54516,7 +54514,7 @@
       </c>
     </row>
     <row r="3207" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3207" s="2">
+      <c r="A3207" s="1">
         <v>43550</v>
       </c>
       <c r="B3207">
@@ -54539,7 +54537,7 @@
       </c>
     </row>
     <row r="3208" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3208" s="2">
+      <c r="A3208" s="1">
         <v>43551</v>
       </c>
       <c r="B3208">
@@ -54562,7 +54560,7 @@
       </c>
     </row>
     <row r="3209" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3209" s="2">
+      <c r="A3209" s="1">
         <v>43552</v>
       </c>
       <c r="B3209">
@@ -54585,7 +54583,7 @@
       </c>
     </row>
     <row r="3210" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3210" s="2">
+      <c r="A3210" s="1">
         <v>43553</v>
       </c>
       <c r="B3210">
@@ -54608,7 +54606,7 @@
       </c>
     </row>
     <row r="3211" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3211" s="2">
+      <c r="A3211" s="1">
         <v>43556</v>
       </c>
       <c r="B3211">
@@ -54631,7 +54629,7 @@
       </c>
     </row>
     <row r="3212" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3212" s="2">
+      <c r="A3212" s="1">
         <v>43557</v>
       </c>
       <c r="B3212">
@@ -54654,7 +54652,7 @@
       </c>
     </row>
     <row r="3213" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3213" s="2">
+      <c r="A3213" s="1">
         <v>43558</v>
       </c>
       <c r="B3213">
@@ -54677,7 +54675,7 @@
       </c>
     </row>
     <row r="3214" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3214" s="2">
+      <c r="A3214" s="1">
         <v>43559</v>
       </c>
       <c r="B3214">
@@ -54700,7 +54698,7 @@
       </c>
     </row>
     <row r="3215" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3215" s="2">
+      <c r="A3215" s="1">
         <v>43563</v>
       </c>
       <c r="B3215">
@@ -54723,7 +54721,7 @@
       </c>
     </row>
     <row r="3216" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3216" s="2">
+      <c r="A3216" s="1">
         <v>43564</v>
       </c>
       <c r="B3216">
@@ -54746,7 +54744,7 @@
       </c>
     </row>
     <row r="3217" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3217" s="2">
+      <c r="A3217" s="1">
         <v>43565</v>
       </c>
       <c r="B3217">
@@ -54769,7 +54767,7 @@
       </c>
     </row>
     <row r="3218" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3218" s="2">
+      <c r="A3218" s="1">
         <v>43566</v>
       </c>
       <c r="B3218">
@@ -54792,7 +54790,7 @@
       </c>
     </row>
     <row r="3219" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3219" s="2">
+      <c r="A3219" s="1">
         <v>43567</v>
       </c>
       <c r="B3219">
@@ -54815,7 +54813,7 @@
       </c>
     </row>
     <row r="3220" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3220" s="2">
+      <c r="A3220" s="1">
         <v>43570</v>
       </c>
       <c r="B3220">
@@ -54838,7 +54836,7 @@
       </c>
     </row>
     <row r="3221" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3221" s="2">
+      <c r="A3221" s="1">
         <v>43571</v>
       </c>
       <c r="B3221">
@@ -54861,7 +54859,7 @@
       </c>
     </row>
     <row r="3222" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3222" s="2">
+      <c r="A3222" s="1">
         <v>43572</v>
       </c>
       <c r="B3222">
@@ -54884,7 +54882,7 @@
       </c>
     </row>
     <row r="3223" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3223" s="2">
+      <c r="A3223" s="1">
         <v>43573</v>
       </c>
       <c r="B3223">
@@ -54907,7 +54905,7 @@
       </c>
     </row>
     <row r="3224" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3224" s="2">
+      <c r="A3224" s="1">
         <v>43574</v>
       </c>
       <c r="B3224">
@@ -54930,7 +54928,7 @@
       </c>
     </row>
     <row r="3225" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3225" s="2">
+      <c r="A3225" s="1">
         <v>43577</v>
       </c>
       <c r="B3225">
@@ -54953,7 +54951,7 @@
       </c>
     </row>
     <row r="3226" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3226" s="2">
+      <c r="A3226" s="1">
         <v>43578</v>
       </c>
       <c r="B3226">
@@ -54976,7 +54974,7 @@
       </c>
     </row>
     <row r="3227" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3227" s="2">
+      <c r="A3227" s="1">
         <v>43579</v>
       </c>
       <c r="B3227">
@@ -54999,7 +54997,7 @@
       </c>
     </row>
     <row r="3228" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3228" s="2">
+      <c r="A3228" s="1">
         <v>43580</v>
       </c>
       <c r="B3228">
@@ -55022,7 +55020,7 @@
       </c>
     </row>
     <row r="3229" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3229" s="2">
+      <c r="A3229" s="1">
         <v>43581</v>
       </c>
       <c r="B3229">
@@ -55045,7 +55043,7 @@
       </c>
     </row>
     <row r="3230" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3230" s="2">
+      <c r="A3230" s="1">
         <v>43584</v>
       </c>
       <c r="B3230">
@@ -55068,7 +55066,7 @@
       </c>
     </row>
     <row r="3231" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3231" s="2">
+      <c r="A3231" s="1">
         <v>43585</v>
       </c>
       <c r="B3231">
@@ -55091,7 +55089,7 @@
       </c>
     </row>
     <row r="3232" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3232" s="2">
+      <c r="A3232" s="1">
         <v>43591</v>
       </c>
       <c r="B3232">
@@ -55114,7 +55112,7 @@
       </c>
     </row>
     <row r="3233" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3233" s="2">
+      <c r="A3233" s="1">
         <v>43592</v>
       </c>
       <c r="B3233">
@@ -55137,7 +55135,7 @@
       </c>
     </row>
     <row r="3234" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3234" s="2">
+      <c r="A3234" s="1">
         <v>43593</v>
       </c>
       <c r="B3234">
@@ -55160,7 +55158,7 @@
       </c>
     </row>
     <row r="3235" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3235" s="2">
+      <c r="A3235" s="1">
         <v>43594</v>
       </c>
       <c r="B3235">
@@ -55183,7 +55181,7 @@
       </c>
     </row>
     <row r="3236" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3236" s="2">
+      <c r="A3236" s="1">
         <v>43595</v>
       </c>
       <c r="B3236">
@@ -55206,7 +55204,7 @@
       </c>
     </row>
     <row r="3237" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3237" s="2">
+      <c r="A3237" s="1">
         <v>43598</v>
       </c>
       <c r="B3237">
@@ -55229,7 +55227,7 @@
       </c>
     </row>
     <row r="3238" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3238" s="2">
+      <c r="A3238" s="1">
         <v>43599</v>
       </c>
       <c r="B3238">
@@ -55252,7 +55250,7 @@
       </c>
     </row>
     <row r="3239" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3239" s="2">
+      <c r="A3239" s="1">
         <v>43600</v>
       </c>
       <c r="B3239">
@@ -55275,7 +55273,7 @@
       </c>
     </row>
     <row r="3240" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3240" s="2">
+      <c r="A3240" s="1">
         <v>43601</v>
       </c>
       <c r="B3240">
@@ -55298,7 +55296,7 @@
       </c>
     </row>
     <row r="3241" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3241" s="2">
+      <c r="A3241" s="1">
         <v>43602</v>
       </c>
       <c r="B3241">
@@ -55321,7 +55319,7 @@
       </c>
     </row>
     <row r="3242" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3242" s="2">
+      <c r="A3242" s="1">
         <v>43605</v>
       </c>
       <c r="B3242">
@@ -55344,7 +55342,7 @@
       </c>
     </row>
     <row r="3243" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3243" s="2">
+      <c r="A3243" s="1">
         <v>43606</v>
       </c>
       <c r="B3243">
@@ -55367,7 +55365,7 @@
       </c>
     </row>
     <row r="3244" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3244" s="2">
+      <c r="A3244" s="1">
         <v>43607</v>
       </c>
       <c r="B3244">
@@ -55390,7 +55388,7 @@
       </c>
     </row>
     <row r="3245" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3245" s="2">
+      <c r="A3245" s="1">
         <v>43608</v>
       </c>
       <c r="B3245">
@@ -55413,7 +55411,7 @@
       </c>
     </row>
     <row r="3246" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3246" s="2">
+      <c r="A3246" s="1">
         <v>43609</v>
       </c>
       <c r="B3246">
@@ -55436,7 +55434,7 @@
       </c>
     </row>
     <row r="3247" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3247" s="2">
+      <c r="A3247" s="1">
         <v>43612</v>
       </c>
       <c r="B3247">
@@ -55459,7 +55457,7 @@
       </c>
     </row>
     <row r="3248" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3248" s="2">
+      <c r="A3248" s="1">
         <v>43613</v>
       </c>
       <c r="B3248">
@@ -55482,7 +55480,7 @@
       </c>
     </row>
     <row r="3249" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3249" s="2">
+      <c r="A3249" s="1">
         <v>43614</v>
       </c>
       <c r="B3249">
@@ -55505,7 +55503,7 @@
       </c>
     </row>
     <row r="3250" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3250" s="2">
+      <c r="A3250" s="1">
         <v>43615</v>
       </c>
       <c r="B3250">
@@ -55525,11 +55523,80 @@
       </c>
       <c r="G3250">
         <v>2430</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3251" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B3251">
+        <v>2036</v>
+      </c>
+      <c r="C3251">
+        <v>2106</v>
+      </c>
+      <c r="D3251">
+        <v>1971</v>
+      </c>
+      <c r="E3251">
+        <v>2464</v>
+      </c>
+      <c r="F3251">
+        <v>2508</v>
+      </c>
+      <c r="G3251">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3252" s="1">
+        <v>43619</v>
+      </c>
+      <c r="B3252">
+        <v>2028</v>
+      </c>
+      <c r="C3252">
+        <v>2099</v>
+      </c>
+      <c r="D3252">
+        <v>1964</v>
+      </c>
+      <c r="E3252">
+        <v>2464</v>
+      </c>
+      <c r="F3252">
+        <v>2509</v>
+      </c>
+      <c r="G3252">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3253" s="1">
+        <v>43620</v>
+      </c>
+      <c r="B3253">
+        <v>2044</v>
+      </c>
+      <c r="C3253">
+        <v>2114</v>
+      </c>
+      <c r="D3253">
+        <v>1974</v>
+      </c>
+      <c r="E3253">
+        <v>2467</v>
+      </c>
+      <c r="F3253">
+        <v>2519</v>
+      </c>
+      <c r="G3253">
+        <v>2422</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/database/FuturesData.xlsx
+++ b/database/FuturesData.xlsx
@@ -42,9 +42,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -79,74 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -162,9 +94,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,10 +184,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +200,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,15 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,13 +238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,7 +250,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,31 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,13 +340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,37 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,31 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,15 +437,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +474,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -509,6 +491,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,16 +529,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,14 +1057,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3363"/>
+  <dimension ref="A1:I3365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3329" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3354" sqref="H3354"/>
+      <selection pane="bottomRight" activeCell="H3362" sqref="H3362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
@@ -64953,28 +64953,351 @@
       </c>
     </row>
     <row r="3349" ht="9.95" customHeight="1" spans="1:7">
-      <c r="A3349" s="3"/>
-      <c r="B3349" s="6"/>
-      <c r="C3349" s="6"/>
-      <c r="D3349" s="6"/>
-      <c r="E3349" s="6"/>
-      <c r="F3349" s="6"/>
-      <c r="G3349" s="6"/>
-    </row>
-    <row r="3350" ht="9.95" customHeight="1"/>
-    <row r="3351" ht="9.95" customHeight="1"/>
-    <row r="3352" ht="9.95" customHeight="1"/>
-    <row r="3353" ht="9.95" customHeight="1"/>
-    <row r="3354" ht="9.95" customHeight="1"/>
-    <row r="3355" ht="9.95" customHeight="1"/>
-    <row r="3356" ht="9.95" customHeight="1"/>
-    <row r="3357" ht="9.95" customHeight="1"/>
-    <row r="3358" ht="9.95" customHeight="1"/>
-    <row r="3359" ht="9.95" customHeight="1"/>
-    <row r="3360" ht="9.95" customHeight="1"/>
-    <row r="3361" ht="9.95" customHeight="1"/>
-    <row r="3362" ht="9.95" customHeight="1"/>
-    <row r="3363" ht="9.95" customHeight="1"/>
+      <c r="A3349" s="3">
+        <v>43762</v>
+      </c>
+      <c r="B3349" s="6">
+        <v>1828</v>
+      </c>
+      <c r="C3349" s="6">
+        <v>1906</v>
+      </c>
+      <c r="D3349" s="6">
+        <v>1956</v>
+      </c>
+      <c r="E3349" s="6">
+        <v>2184</v>
+      </c>
+      <c r="F3349" s="6">
+        <v>2260</v>
+      </c>
+      <c r="G3349" s="6">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="3350" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3350" s="3">
+        <v>43763</v>
+      </c>
+      <c r="B3350" s="6">
+        <v>1828</v>
+      </c>
+      <c r="C3350" s="6">
+        <v>1906</v>
+      </c>
+      <c r="D3350" s="6">
+        <v>1954</v>
+      </c>
+      <c r="E3350" s="6">
+        <v>2185</v>
+      </c>
+      <c r="F3350" s="6">
+        <v>2264</v>
+      </c>
+      <c r="G3350" s="6">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="3351" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3351" s="3">
+        <v>43766</v>
+      </c>
+      <c r="B3351" s="6">
+        <v>1846</v>
+      </c>
+      <c r="C3351" s="6">
+        <v>1924</v>
+      </c>
+      <c r="D3351" s="6">
+        <v>1970</v>
+      </c>
+      <c r="E3351" s="6">
+        <v>2199</v>
+      </c>
+      <c r="F3351" s="6">
+        <v>2276</v>
+      </c>
+      <c r="G3351" s="6">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="3352" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3352" s="3">
+        <v>43767</v>
+      </c>
+      <c r="B3352" s="6">
+        <v>1864</v>
+      </c>
+      <c r="C3352" s="6">
+        <v>1940</v>
+      </c>
+      <c r="D3352" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E3352" s="6">
+        <v>2216</v>
+      </c>
+      <c r="F3352" s="6">
+        <v>2295</v>
+      </c>
+      <c r="G3352" s="6">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="3353" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3353" s="3">
+        <v>43768</v>
+      </c>
+      <c r="B3353" s="6">
+        <v>1868</v>
+      </c>
+      <c r="C3353" s="6">
+        <v>1947</v>
+      </c>
+      <c r="D3353" s="6">
+        <v>1996</v>
+      </c>
+      <c r="E3353" s="6">
+        <v>2219</v>
+      </c>
+      <c r="F3353" s="6">
+        <v>2300</v>
+      </c>
+      <c r="G3353" s="6">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="3354" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3354" s="3">
+        <v>43769</v>
+      </c>
+      <c r="B3354" s="6">
+        <v>1873</v>
+      </c>
+      <c r="C3354" s="6">
+        <v>1952</v>
+      </c>
+      <c r="D3354" s="6">
+        <v>1996</v>
+      </c>
+      <c r="E3354" s="6">
+        <v>2224</v>
+      </c>
+      <c r="F3354" s="6">
+        <v>2303</v>
+      </c>
+      <c r="G3354" s="6">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="3355" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3355" s="3">
+        <v>43770</v>
+      </c>
+      <c r="B3355" s="6">
+        <v>1887</v>
+      </c>
+      <c r="C3355" s="6">
+        <v>1961</v>
+      </c>
+      <c r="D3355" s="6">
+        <v>2005</v>
+      </c>
+      <c r="E3355" s="6">
+        <v>2239</v>
+      </c>
+      <c r="F3355" s="6">
+        <v>2311</v>
+      </c>
+      <c r="G3355" s="6">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="3356" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3356" s="3">
+        <v>43773</v>
+      </c>
+      <c r="B3356" s="6">
+        <v>1876</v>
+      </c>
+      <c r="C3356" s="6">
+        <v>1954</v>
+      </c>
+      <c r="D3356" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E3356" s="6">
+        <v>2236</v>
+      </c>
+      <c r="F3356" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G3356" s="6">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="3357" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3357" s="3">
+        <v>43774</v>
+      </c>
+      <c r="B3357" s="6">
+        <v>1874</v>
+      </c>
+      <c r="C3357" s="6">
+        <v>1955</v>
+      </c>
+      <c r="D3357" s="6">
+        <v>1999</v>
+      </c>
+      <c r="E3357" s="6">
+        <v>2225</v>
+      </c>
+      <c r="F3357" s="6">
+        <v>2302</v>
+      </c>
+      <c r="G3357" s="6">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="3358" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3358" s="3">
+        <v>43775</v>
+      </c>
+      <c r="B3358" s="6">
+        <v>1854</v>
+      </c>
+      <c r="C3358" s="6">
+        <v>1940</v>
+      </c>
+      <c r="D3358" s="6">
+        <v>1986</v>
+      </c>
+      <c r="E3358" s="6">
+        <v>2213</v>
+      </c>
+      <c r="F3358" s="6">
+        <v>2289</v>
+      </c>
+      <c r="G3358" s="6">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="3359" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3359" s="3">
+        <v>43776</v>
+      </c>
+      <c r="B3359" s="6">
+        <v>1845</v>
+      </c>
+      <c r="C3359" s="6">
+        <v>1935</v>
+      </c>
+      <c r="D3359" s="6">
+        <v>1984</v>
+      </c>
+      <c r="E3359" s="6">
+        <v>2204</v>
+      </c>
+      <c r="F3359" s="6">
+        <v>2283</v>
+      </c>
+      <c r="G3359" s="6">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="3360" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3360" s="3">
+        <v>43777</v>
+      </c>
+      <c r="B3360" s="6">
+        <v>1865</v>
+      </c>
+      <c r="C3360" s="6">
+        <v>1949</v>
+      </c>
+      <c r="D3360" s="6">
+        <v>1995</v>
+      </c>
+      <c r="E3360" s="6">
+        <v>2223</v>
+      </c>
+      <c r="F3360" s="6">
+        <v>2304</v>
+      </c>
+      <c r="G3360" s="6">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="3361" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3361" s="3">
+        <v>43780</v>
+      </c>
+      <c r="B3361" s="6">
+        <v>1855</v>
+      </c>
+      <c r="C3361" s="6">
+        <v>1938</v>
+      </c>
+      <c r="D3361" s="6">
+        <v>1985</v>
+      </c>
+      <c r="E3361" s="6">
+        <v>2205</v>
+      </c>
+      <c r="F3361" s="6">
+        <v>2289</v>
+      </c>
+      <c r="G3361" s="6">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="3362" ht="9.95" customHeight="1" spans="1:7">
+      <c r="A3362" s="3">
+        <v>43781</v>
+      </c>
+      <c r="B3362" s="6">
+        <v>1838</v>
+      </c>
+      <c r="C3362" s="6">
+        <v>1919</v>
+      </c>
+      <c r="D3362" s="6">
+        <v>1967</v>
+      </c>
+      <c r="E3362" s="6">
+        <v>2189</v>
+      </c>
+      <c r="F3362" s="6">
+        <v>2271</v>
+      </c>
+      <c r="G3362" s="6">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="3363" ht="9.95" customHeight="1" spans="2:7">
+      <c r="B3363" s="6"/>
+      <c r="C3363" s="6"/>
+      <c r="D3363" s="6"/>
+      <c r="E3363" s="6"/>
+      <c r="F3363" s="6"/>
+      <c r="G3363" s="6"/>
+    </row>
+    <row r="3364" spans="2:7">
+      <c r="B3364" s="6"/>
+      <c r="C3364" s="6"/>
+      <c r="D3364" s="6"/>
+      <c r="E3364" s="6"/>
+      <c r="F3364" s="6"/>
+      <c r="G3364" s="6"/>
+    </row>
+    <row r="3365" spans="2:7">
+      <c r="B3365" s="6"/>
+      <c r="C3365" s="6"/>
+      <c r="D3365" s="6"/>
+      <c r="E3365" s="6"/>
+      <c r="F3365" s="6"/>
+      <c r="G3365" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
